--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.9460554670849781</v>
+        <v>7.9460554484107551</v>
       </c>
       <c r="C2">
-        <v>14.518630662345601</v>
+        <v>14.518630643249791</v>
       </c>
       <c r="D2">
-        <v>24.026591957416919</v>
+        <v>24.026591894955736</v>
       </c>
       <c r="E2">
-        <v>39.262044667606226</v>
+        <v>39.262044649592724</v>
       </c>
       <c r="F2">
-        <v>23.236082107672495</v>
+        <v>23.2360820874434</v>
       </c>
       <c r="G2">
-        <v>9.6866053830550474</v>
+        <v>9.6866053891835939</v>
       </c>
       <c r="H2">
-        <v>16.812620943185379</v>
+        <v>16.812620906467767</v>
       </c>
       <c r="I2">
-        <v>21.128868555121713</v>
+        <v>21.128868575668971</v>
       </c>
       <c r="J2">
-        <v>22.240665852363311</v>
+        <v>22.24066581276503</v>
       </c>
       <c r="K2">
-        <v>7.9968685323807103</v>
+        <v>7.9968685519135638</v>
       </c>
       <c r="L2">
-        <v>4.7239866223726965</v>
+        <v>4.7239866048182524</v>
       </c>
       <c r="N2">
-        <v>23.081651000698709</v>
+        <v>23.081650999606275</v>
       </c>
       <c r="O2">
-        <v>20.350861939891622</v>
+        <v>20.350861874487762</v>
       </c>
       <c r="P2">
-        <v>32.263938544376387</v>
+        <v>32.263938523366242</v>
       </c>
       <c r="Q2">
-        <v>3.3651925467968145</v>
+        <v>3.3651924891755751</v>
       </c>
       <c r="S2">
-        <v>33.15185962197031</v>
+        <v>33.151859358974676</v>
       </c>
       <c r="V2">
-        <v>16.799987442602692</v>
+        <v>16.799987364282732</v>
       </c>
       <c r="W2">
-        <v>-13.277065777483282</v>
+        <v>-13.277065815399327</v>
       </c>
       <c r="X2">
-        <v>6.5389836620849131</v>
+        <v>6.5389836241344508</v>
       </c>
       <c r="AA2">
-        <v>29.824453602206525</v>
+        <v>29.824453541328701</v>
       </c>
       <c r="AB2">
-        <v>24.613701444469491</v>
+        <v>24.613701342199054</v>
       </c>
       <c r="AC2">
-        <v>5.5735204634228648</v>
+        <v>5.5735204661562054</v>
       </c>
       <c r="AD2">
-        <v>43.657309083123423</v>
+        <v>43.657308951812176</v>
       </c>
       <c r="AE2">
-        <v>21.981767540392855</v>
+        <v>21.981767534994546</v>
       </c>
       <c r="AF2">
-        <v>28.289765357179036</v>
+        <v>28.289765345227895</v>
       </c>
       <c r="AG2">
-        <v>32.24964000828178</v>
+        <v>32.24963993053408</v>
       </c>
       <c r="AH2">
-        <v>32.585451266678653</v>
+        <v>32.585451168450966</v>
       </c>
       <c r="AI2">
-        <v>23.920215419636758</v>
+        <v>23.920215310163041</v>
       </c>
       <c r="AJ2">
-        <v>19.0551109006594</v>
+        <v>19.055110873956234</v>
       </c>
       <c r="AK2">
-        <v>23.934410168842181</v>
+        <v>23.934410105747617</v>
       </c>
       <c r="AL2">
-        <v>1.1133437752414244</v>
+        <v>1.1133437309888166</v>
       </c>
       <c r="AM2">
-        <v>28.997406628260734</v>
+        <v>28.997406510130791</v>
       </c>
       <c r="AN2">
-        <v>30.804040693879802</v>
+        <v>30.804040603893164</v>
       </c>
       <c r="AO2">
-        <v>52.548506816173948</v>
+        <v>52.548506693444267</v>
       </c>
       <c r="AQ2">
-        <v>3.7434659107347064</v>
+        <v>3.7434658203179509</v>
       </c>
       <c r="AR2">
-        <v>39.088957823367963</v>
+        <v>39.088957853859625</v>
       </c>
       <c r="AS2">
-        <v>37.281299379280604</v>
+        <v>37.281299261969124</v>
       </c>
       <c r="AU2">
-        <v>30.275639030257988</v>
+        <v>30.275638966458985</v>
       </c>
       <c r="AV2">
-        <v>11.863130725600353</v>
+        <v>11.863130582165766</v>
       </c>
       <c r="AW2">
-        <v>13.614257747406414</v>
+        <v>13.614257664547347</v>
       </c>
       <c r="AX2">
-        <v>34.351901513633045</v>
+        <v>34.35190146185986</v>
       </c>
       <c r="AY2">
-        <v>48.340062529767685</v>
+        <v>48.340062424379198</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10.4898603278167</v>
+        <v>10.489860279733588</v>
       </c>
       <c r="C3">
-        <v>13.741207564078906</v>
+        <v>13.741207502673342</v>
       </c>
       <c r="E3">
-        <v>31.68412324792742</v>
+        <v>31.684123216164434</v>
       </c>
       <c r="F3">
-        <v>14.982585817933339</v>
+        <v>14.982585761816814</v>
       </c>
       <c r="G3">
-        <v>24.500475647739368</v>
+        <v>24.500475608500523</v>
       </c>
       <c r="H3">
-        <v>3.3472769636353088</v>
+        <v>3.3472769434080578</v>
       </c>
       <c r="J3">
-        <v>28.892660388544357</v>
+        <v>28.892660292387724</v>
       </c>
       <c r="K3">
-        <v>58.830756483648074</v>
+        <v>58.83075644001098</v>
       </c>
       <c r="L3">
-        <v>36.395385688700273</v>
+        <v>36.395385603682492</v>
       </c>
       <c r="M3">
-        <v>4.9838943793746378</v>
+        <v>4.9836953228449925</v>
       </c>
       <c r="N3">
-        <v>19.524893693675939</v>
+        <v>19.524893642815496</v>
       </c>
       <c r="P3">
-        <v>32.851607732045402</v>
+        <v>32.851607612795306</v>
       </c>
       <c r="Q3">
-        <v>15.671302393931407</v>
+        <v>15.671302341271948</v>
       </c>
       <c r="R3">
-        <v>2.8653261793840694</v>
+        <v>2.8653260498306459</v>
       </c>
       <c r="W3">
-        <v>2.6378275623782979</v>
+        <v>2.6378274654491407</v>
       </c>
       <c r="AA3">
-        <v>34.251147186470448</v>
+        <v>34.251147103634622</v>
       </c>
       <c r="AB3">
-        <v>28.808668270930387</v>
+        <v>28.808668202228628</v>
       </c>
       <c r="AC3">
-        <v>45.532456909750969</v>
+        <v>45.532456887383177</v>
       </c>
       <c r="AD3">
-        <v>44.724004801696957</v>
+        <v>44.724004750293169</v>
       </c>
       <c r="AE3">
-        <v>40.257147009724278</v>
+        <v>40.257146984457016</v>
       </c>
       <c r="AF3">
-        <v>25.798396317735346</v>
+        <v>25.798396264784245</v>
       </c>
       <c r="AG3">
-        <v>15.924258168921316</v>
+        <v>15.924258086582199</v>
       </c>
       <c r="AH3">
-        <v>11.221852388511923</v>
+        <v>11.221852317787469</v>
       </c>
       <c r="AI3">
-        <v>69.60745015777799</v>
+        <v>69.607450148869958</v>
       </c>
       <c r="AJ3">
-        <v>45.361379634160194</v>
+        <v>45.361379542684929</v>
       </c>
       <c r="AK3">
-        <v>33.492903862973264</v>
+        <v>33.492903804387467</v>
       </c>
       <c r="AL3">
-        <v>20.35521416276238</v>
+        <v>20.355214069247516</v>
       </c>
       <c r="AM3">
-        <v>21.237197945507134</v>
+        <v>21.237197820286276</v>
       </c>
       <c r="AN3">
-        <v>-11.803437148912689</v>
+        <v>-11.803437204544243</v>
       </c>
       <c r="AO3">
-        <v>45.909882409961547</v>
+        <v>45.909882361753588</v>
       </c>
       <c r="AP3">
-        <v>14.11635101371764</v>
+        <v>14.116350945311302</v>
       </c>
       <c r="AQ3">
-        <v>23.705171984151139</v>
+        <v>23.705171906540002</v>
       </c>
       <c r="AS3">
-        <v>33.775833835397698</v>
+        <v>33.775833814261631</v>
       </c>
       <c r="AT3">
-        <v>31.309781630779604</v>
+        <v>31.309781554785339</v>
       </c>
       <c r="AU3">
-        <v>20.765769350869054</v>
+        <v>20.7657693286232</v>
       </c>
       <c r="AV3">
-        <v>14.72991853561588</v>
+        <v>14.729918466457253</v>
       </c>
       <c r="AW3">
-        <v>13.931919823299419</v>
+        <v>13.931919757542344</v>
       </c>
       <c r="AX3">
-        <v>16.492160890234182</v>
+        <v>16.492160822247453</v>
       </c>
       <c r="AY3">
-        <v>48.952203179480733</v>
+        <v>48.952203094030828</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,56 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>7.9460554484107551</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>14.518630643249791</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>24.026591894955736</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>39.262044649592724</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>23.2360820874434</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>9.6866053891835939</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>16.812620906467767</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>21.128868575668971</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>22.24066581276503</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>7.9968685519135638</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>4.7239866048182524</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>23.081650999606275</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>20.350861874487762</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>32.263938523366242</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>3.3651924891755751</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>33.151859358974676</v>
+        <v>19.796164777789048</v>
       </c>
       <c r="V2">
         <v>16.799987364282732</v>
@@ -570,52 +465,55 @@
         <v>6.5389836241344508</v>
       </c>
       <c r="AA2">
-        <v>29.824453541328701</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>24.613701342199054</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>5.5735204661562054</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>43.657308951812176</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>21.981767534994546</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>28.289765345227895</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>32.24963993053408</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>32.585451168450966</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>23.920215310163041</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>19.055110873956234</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>23.934410105747617</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.1133437309888166</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>28.997406510130791</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>30.804040603893164</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>52.548506693444267</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>3.7434658203179509</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>39.088957853859625</v>
@@ -640,104 +538,110 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>10.489860279733588</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>13.741207502673342</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>31.684123216164434</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>14.982585761816814</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>24.500475608500523</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.3472769434080578</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>28.892660292387724</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>58.83075644001098</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>36.395385603682492</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>4.9836953228449925</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>19.524893642815496</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>32.851607612795306</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>15.671302341271948</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>2.8653260498306459</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>2.6378274654491407</v>
       </c>
       <c r="AA3">
-        <v>34.251147103634622</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>28.808668202228628</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>45.532456887383177</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>44.724004750293169</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>40.257146984457016</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>25.798396264784245</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>15.924258086582199</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>11.221852317787469</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>69.607450148869958</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>45.361379542684929</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>33.492903804387467</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>20.355214069247516</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>21.237197820286276</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-11.803437204544243</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>45.909882361753588</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>14.116350945311302</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>23.705171906540002</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>33.775833814261631</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,18 +512,6 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>7.9460554670849781</v>
-      </c>
-      <c r="C2">
-        <v>10.389369509388539</v>
-      </c>
-      <c r="D2">
-        <v>24.026591957416919</v>
-      </c>
-      <c r="E2">
-        <v>39.262044667606226</v>
-      </c>
       <c r="F2">
         <v>23.236082107672495</v>
       </c>
@@ -648,14 +631,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>10.4898603278167</v>
-      </c>
       <c r="C3">
-        <v>13.741207564078906</v>
+        <v>2.8653260498306459</v>
+      </c>
+      <c r="D3">
+        <v>-10.160790160633542</v>
       </c>
       <c r="E3">
-        <v>31.68412324792742</v>
+        <v>25.801246793190526</v>
       </c>
       <c r="F3">
         <v>14.982585817933339</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.9460554670849781</v>
-      </c>
-      <c r="C2">
-        <v>10.389369509388539</v>
+        <v>21.163384158590951</v>
       </c>
       <c r="D2">
-        <v>24.026591957416919</v>
-      </c>
-      <c r="E2">
-        <v>39.262044667606226</v>
+        <v>28.997406510130791</v>
       </c>
       <c r="F2">
         <v>23.236082107672495</v>
@@ -637,13 +626,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10.4898603278167</v>
-      </c>
-      <c r="C3">
-        <v>13.741207564078906</v>
+        <v>19.524893642815496</v>
+      </c>
+      <c r="D3">
+        <v>21.237197820286276</v>
       </c>
       <c r="E3">
-        <v>43.16600556997566</v>
+        <v>-10.160790160633542</v>
       </c>
       <c r="F3">
         <v>14.982585817933339</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,112 +513,118 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>7.9460554484107551</v>
+      </c>
+      <c r="C2">
+        <v>10.389369494403883</v>
+      </c>
+      <c r="D2">
+        <v>24.026591894955736</v>
+      </c>
+      <c r="E2">
+        <v>39.262044649592724</v>
+      </c>
+      <c r="F2">
+        <v>23.2360820874434</v>
+      </c>
+      <c r="G2">
+        <v>16.925172140416787</v>
+      </c>
+      <c r="H2">
+        <v>16.812620906467767</v>
+      </c>
+      <c r="I2">
+        <v>29.337571758288917</v>
+      </c>
+      <c r="J2">
+        <v>22.24066581276503</v>
+      </c>
+      <c r="K2">
+        <v>7.9968685519135638</v>
+      </c>
+      <c r="L2">
+        <v>5.1364630419558059</v>
+      </c>
+      <c r="N2">
         <v>21.163384158590951</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>35.380411003669494</v>
+      </c>
+      <c r="Q2">
+        <v>3.3651924891755751</v>
+      </c>
+      <c r="V2">
+        <v>23.627526206912815</v>
+      </c>
+      <c r="W2">
+        <v>-13.277065815399327</v>
+      </c>
+      <c r="X2">
+        <v>6.5389836241344508</v>
+      </c>
+      <c r="AA2">
+        <v>29.824453541328701</v>
+      </c>
+      <c r="AB2">
+        <v>24.613701342199054</v>
+      </c>
+      <c r="AC2">
+        <v>5.5735204661562054</v>
+      </c>
+      <c r="AD2">
+        <v>43.657308951812176</v>
+      </c>
+      <c r="AE2">
+        <v>21.981767534994546</v>
+      </c>
+      <c r="AF2">
+        <v>28.289765345227895</v>
+      </c>
+      <c r="AG2">
+        <v>32.24963993053408</v>
+      </c>
+      <c r="AH2">
+        <v>32.585451168450966</v>
+      </c>
+      <c r="AI2">
+        <v>23.920215310163041</v>
+      </c>
+      <c r="AJ2">
+        <v>19.055110873956234</v>
+      </c>
+      <c r="AK2">
+        <v>23.934410105747617</v>
+      </c>
+      <c r="AL2">
+        <v>1.1133437309888166</v>
+      </c>
+      <c r="AM2">
         <v>28.997406510130791</v>
       </c>
-      <c r="F2">
-        <v>23.236082107672495</v>
-      </c>
-      <c r="G2">
-        <v>16.925172136353119</v>
-      </c>
-      <c r="H2">
-        <v>16.812620943185379</v>
-      </c>
-      <c r="I2">
-        <v>29.337571725797808</v>
-      </c>
-      <c r="J2">
-        <v>22.240665852363311</v>
-      </c>
-      <c r="K2">
-        <v>7.9968685323807103</v>
-      </c>
-      <c r="L2">
-        <v>5.1364630751296687</v>
-      </c>
-      <c r="N2">
-        <v>21.163384169366182</v>
-      </c>
-      <c r="P2">
-        <v>35.380411008743366</v>
-      </c>
-      <c r="Q2">
-        <v>3.3651925467968145</v>
-      </c>
-      <c r="V2">
-        <v>23.627526320696283</v>
-      </c>
-      <c r="W2">
-        <v>-13.277065777483282</v>
-      </c>
-      <c r="X2">
-        <v>6.5389836620849131</v>
-      </c>
-      <c r="AA2">
-        <v>29.824453602206525</v>
-      </c>
-      <c r="AB2">
-        <v>24.613701444469491</v>
-      </c>
-      <c r="AC2">
-        <v>5.5735204634228648</v>
-      </c>
-      <c r="AD2">
-        <v>43.657309083123423</v>
-      </c>
-      <c r="AE2">
-        <v>21.981767540392855</v>
-      </c>
-      <c r="AF2">
-        <v>28.289765357179036</v>
-      </c>
-      <c r="AG2">
-        <v>32.24964000828178</v>
-      </c>
-      <c r="AH2">
-        <v>32.585451266678653</v>
-      </c>
-      <c r="AI2">
-        <v>23.920215419636758</v>
-      </c>
-      <c r="AJ2">
-        <v>19.0551109006594</v>
-      </c>
-      <c r="AK2">
-        <v>23.934410168842181</v>
-      </c>
-      <c r="AL2">
-        <v>1.1133437752414244</v>
-      </c>
-      <c r="AM2">
-        <v>28.997406628260734</v>
-      </c>
       <c r="AO2">
-        <v>52.548506816173948</v>
+        <v>52.548506693444267</v>
       </c>
       <c r="AR2">
-        <v>39.088957823367963</v>
+        <v>39.088957853859625</v>
       </c>
       <c r="AS2">
-        <v>37.281299379280604</v>
+        <v>37.281299261969124</v>
       </c>
       <c r="AU2">
-        <v>17.227716357840382</v>
+        <v>17.227716267860561</v>
       </c>
       <c r="AV2">
-        <v>11.863130725600353</v>
+        <v>11.863130582165766</v>
       </c>
       <c r="AW2">
-        <v>13.614257747406414</v>
+        <v>13.614257664547347</v>
       </c>
       <c r="AX2">
-        <v>34.351901513633045</v>
+        <v>34.35190146185986</v>
       </c>
       <c r="AY2">
-        <v>48.340062529767685</v>
+        <v>48.340062424379198</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -626,121 +632,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>10.489860279733588</v>
+      </c>
+      <c r="C3">
+        <v>13.741207502673342</v>
+      </c>
+      <c r="E3">
+        <v>43.166005578907161</v>
+      </c>
+      <c r="F3">
+        <v>14.982585761816814</v>
+      </c>
+      <c r="G3">
+        <v>24.500475608500523</v>
+      </c>
+      <c r="H3">
+        <v>3.3472769434080578</v>
+      </c>
+      <c r="J3">
+        <v>28.892660292387724</v>
+      </c>
+      <c r="K3">
+        <v>48.476797210401593</v>
+      </c>
+      <c r="L3">
+        <v>36.395385603682492</v>
+      </c>
+      <c r="M3">
+        <v>-0.94121932665512353</v>
+      </c>
+      <c r="N3">
         <v>19.524893642815496</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>32.851607612795306</v>
+      </c>
+      <c r="Q3">
+        <v>15.671302341271948</v>
+      </c>
+      <c r="R3">
+        <v>2.8653260498306459</v>
+      </c>
+      <c r="W3">
+        <v>2.6378274654491407</v>
+      </c>
+      <c r="AA3">
+        <v>34.251147103634622</v>
+      </c>
+      <c r="AB3">
+        <v>28.808668202228628</v>
+      </c>
+      <c r="AC3">
+        <v>45.532456887383177</v>
+      </c>
+      <c r="AD3">
+        <v>44.724004750293169</v>
+      </c>
+      <c r="AE3">
+        <v>40.257146984457016</v>
+      </c>
+      <c r="AF3">
+        <v>25.798396264784245</v>
+      </c>
+      <c r="AG3">
+        <v>15.924258086582199</v>
+      </c>
+      <c r="AH3">
+        <v>11.221852317787469</v>
+      </c>
+      <c r="AI3">
+        <v>27.003006496633674</v>
+      </c>
+      <c r="AJ3">
+        <v>45.361379542684929</v>
+      </c>
+      <c r="AK3">
+        <v>33.492903804387467</v>
+      </c>
+      <c r="AL3">
+        <v>20.355214069247516</v>
+      </c>
+      <c r="AM3">
         <v>21.237197820286276</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-10.160790160633542</v>
       </c>
-      <c r="F3">
-        <v>14.982585817933339</v>
-      </c>
-      <c r="G3">
-        <v>24.500475647739368</v>
-      </c>
-      <c r="H3">
-        <v>3.3472769636353088</v>
-      </c>
-      <c r="J3">
-        <v>28.892660388544357</v>
-      </c>
-      <c r="K3">
-        <v>48.476797257821467</v>
-      </c>
-      <c r="L3">
-        <v>36.395385688700273</v>
-      </c>
-      <c r="M3">
-        <v>-0.94140663778980571</v>
-      </c>
-      <c r="N3">
-        <v>19.524893693675939</v>
-      </c>
-      <c r="P3">
-        <v>32.851607732045402</v>
-      </c>
-      <c r="Q3">
-        <v>15.671302393931407</v>
-      </c>
-      <c r="R3">
-        <v>2.8653261793840694</v>
-      </c>
-      <c r="W3">
-        <v>2.6378275623782979</v>
-      </c>
-      <c r="AA3">
-        <v>34.251147186470448</v>
-      </c>
-      <c r="AB3">
-        <v>28.808668270930387</v>
-      </c>
-      <c r="AC3">
-        <v>45.532456909750969</v>
-      </c>
-      <c r="AD3">
-        <v>44.724004801696957</v>
-      </c>
-      <c r="AE3">
-        <v>40.257147009724278</v>
-      </c>
-      <c r="AF3">
-        <v>25.798396317735346</v>
-      </c>
-      <c r="AG3">
-        <v>15.924258168921316</v>
-      </c>
-      <c r="AH3">
-        <v>11.221852388511923</v>
-      </c>
-      <c r="AI3">
-        <v>27.003006604016182</v>
-      </c>
-      <c r="AJ3">
-        <v>45.361379634160194</v>
-      </c>
-      <c r="AK3">
-        <v>33.492903862973264</v>
-      </c>
-      <c r="AL3">
-        <v>20.35521416276238</v>
-      </c>
-      <c r="AM3">
-        <v>21.237197945507134</v>
-      </c>
-      <c r="AN3">
-        <v>-10.160790100782384</v>
-      </c>
       <c r="AO3">
-        <v>45.909882409961547</v>
+        <v>45.909882361753588</v>
       </c>
       <c r="AP3">
-        <v>14.11635101371764</v>
+        <v>14.116350945311302</v>
       </c>
       <c r="AQ3">
-        <v>25.801246826050576</v>
+        <v>25.801246793190526</v>
       </c>
       <c r="AS3">
-        <v>33.775833835397698</v>
+        <v>33.775833814261631</v>
       </c>
       <c r="AT3">
-        <v>31.309781630779604</v>
+        <v>31.309781554785339</v>
       </c>
       <c r="AU3">
-        <v>22.970567809902569</v>
+        <v>22.970567783378097</v>
       </c>
       <c r="AV3">
-        <v>14.72991853561588</v>
+        <v>14.729918466457253</v>
       </c>
       <c r="AW3">
-        <v>13.931919823299419</v>
+        <v>13.931919757542344</v>
       </c>
       <c r="AX3">
-        <v>16.492160890234182</v>
+        <v>16.492160822247453</v>
       </c>
       <c r="AY3">
-        <v>48.952203179480733</v>
+        <v>48.952203094030828</v>
       </c>
     </row>
   </sheetData>
